--- a/data/trans_camb/P23_1_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_1_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,34</t>
+          <t>24,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,53</t>
+          <t>-5,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,01</t>
+          <t>-7,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>-14,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,67</t>
+          <t>-3,42</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11,93</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-10,2</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-5,14</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 27,5</t>
+          <t>1,84; 57,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-38,62; -1,04</t>
+          <t>-23,77; 9,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 14,12</t>
+          <t>-24,4; 8,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,25; 4,05</t>
+          <t>-16,7; 16,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 17,82</t>
+          <t>-28,94; -1,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,09; -0,53</t>
+          <t>-18,53; 13,72</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 33,3</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-20,95; -0,47</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-16,05; 8,85</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>143,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-57,64%</t>
+          <t>-34,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>-43,27%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-26,15%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,23%</t>
+          <t>-64,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-44,3%</t>
+          <t>-15,69%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>60,87%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-52,03%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-26,23%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,11; 200,31</t>
+          <t>0,03; 800,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-91,34; -3,89</t>
+          <t>-83,81; 99,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 150,74</t>
+          <t>-88,03; 73,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-68,12; 48,89</t>
+          <t>-53,97; 120,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,26; 142,1</t>
+          <t>-93,66; 10,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-74,27; -2,46</t>
+          <t>-65,02; 103,33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-9,15; 240,17</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-79,35; 2,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-64,91; 67,17</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>-6,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-3,04</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 6,94</t>
+          <t>-5,26; 16,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 10,53</t>
+          <t>-2,54; 20,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 6,85</t>
+          <t>-12,51; 0,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 6,9</t>
+          <t>-5,62; 7,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 5,13</t>
+          <t>-5,45; 7,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 6,73</t>
+          <t>-6,58; 6,05</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,94; 10,15</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-1,53; 12,71</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,6; 1,81</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>21,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>53,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,54%</t>
+          <t>-47,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17,44%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>39,06%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-26,48%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-42,91; 77,64</t>
+          <t>-35,22; 195,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 108,82</t>
+          <t>-19,33; 209,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 75,48</t>
+          <t>-76,06; 12,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 80,67</t>
+          <t>-41,86; 100,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 50,61</t>
+          <t>-41,3; 97,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 63,07</t>
+          <t>-50,9; 85,66</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-23,29; 108,28</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-13,37; 127,45</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-54,81; 21,16</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,02</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>-5,59</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,39</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 6,49</t>
+          <t>-4,15; 11,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 9,34</t>
+          <t>-2,78; 15,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 12,18</t>
+          <t>-4,37; 12,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 12,07</t>
+          <t>-1,47; 15,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 8,22</t>
+          <t>-5,21; 10,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 8,35</t>
+          <t>-12,58; 3,26</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 11,27</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 9,39</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,82; 4,45</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>43,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>26,06%</t>
+          <t>58,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>46,03%</t>
+          <t>34,4%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>44,27%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>14,23%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>-36,45%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42,96%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>27,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-13,75%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,19; 110,88</t>
+          <t>-36,15; 242,69</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,39; 160,34</t>
+          <t>-34,67; 278,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 124,79</t>
+          <t>-41,33; 229,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 115,43</t>
+          <t>-7,59; 129,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 92,75</t>
+          <t>-27,81; 91,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 93,18</t>
+          <t>-66,21; 36,19</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-3,51; 120,9</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-17,46; 98,58</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-47,58; 48,38</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 5,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 7,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 5,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 6,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 70,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 55,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 70,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 51,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 60,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 35,15</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>6,1</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,99</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 16,56</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 12,5</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 1,67</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,93; 8,15</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 3,8</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,12; 3,04</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 9,52</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 6,33</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 0,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>50,74%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>37,62%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-24,85%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-16,46%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>35,63%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-20,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 159,34</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-12,85; 122,92</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-57,65; 18,97</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-10,53; 71,8</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-32,89; 32,44</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-43,61; 26,73</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 82,31</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,38; 53,15</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-41,75; 7,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
